--- a/Excel/11-div23q1.xlsx
+++ b/Excel/11-div23q1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26611"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_98B425213231921FD2FE31D2F8375B06041B643C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7B6CE34-065A-4D1B-AB10-AE746FA808F0}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_98B425213231921FD2FE31D2F8375B06041B643C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1D6FE61-9F8E-4843-946D-0906F6F8D1D4}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -718,7 +718,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B8">
@@ -731,14 +731,14 @@
         <f>B8*C8</f>
         <v>2064</v>
       </c>
-      <c r="E8" s="5">
-        <f>D8*0.9</f>
-        <v>1857.6000000000001</v>
+      <c r="E8" s="9">
+        <f>D8</f>
+        <v>2064</v>
       </c>
       <c r="F8" s="3">
         <v>45077</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="8">
         <v>45096</v>
       </c>
       <c r="H8">
@@ -765,14 +765,14 @@
         <f>B9*C9</f>
         <v>6845</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="9">
         <f>D9*0.9</f>
         <v>6160.5</v>
       </c>
       <c r="F9" s="3">
         <v>45068</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="8">
         <v>45099</v>
       </c>
       <c r="H9">
@@ -788,7 +788,7 @@
     <row r="10" spans="1:10">
       <c r="E10" s="5">
         <f>SUM(E2:E9)</f>
-        <v>69926.600000000006</v>
+        <v>70133</v>
       </c>
     </row>
     <row r="12" spans="1:10">
